--- a/biology/Zoologie/Stéphane_Durand_(biologiste)/Stéphane_Durand_(biologiste).xlsx
+++ b/biology/Zoologie/Stéphane_Durand_(biologiste)/Stéphane_Durand_(biologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Durand_(biologiste)</t>
+          <t>Stéphane_Durand_(biologiste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stéphane Durand, né le 18 août 1970[1],[2][source insuffisante], est un biologiste et ornithologue français, écrivain, éditeur, conférencier, photographe, scénariste, réalisateur, journaliste et conseiller scientifique pour le cinéma.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stéphane Durand, né le 18 août 1970,[source insuffisante], est un biologiste et ornithologue français, écrivain, éditeur, conférencier, photographe, scénariste, réalisateur, journaliste et conseiller scientifique pour le cinéma.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Durand_(biologiste)</t>
+          <t>Stéphane_Durand_(biologiste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>20000 ans ou la grande histoire de la nature, Actes Sud, 2018
 Ré-ensauvageons la France, co-écrit avec Gilbert Cochet, Actes Sud, 2018.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Durand_(biologiste)</t>
+          <t>Stéphane_Durand_(biologiste)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stéphane Durand dirige ou co-dirige les éditions Mondes Sauvages, Voix de la Terre, Domaines des possibles et Je passe à l'acte chez Actes Sud[3]. Il a notamment publié des ouvrages de François Sarano,Vinciane Despret ou Baptiste Morizot.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stéphane Durand dirige ou co-dirige les éditions Mondes Sauvages, Voix de la Terre, Domaines des possibles et Je passe à l'acte chez Actes Sud. Il a notamment publié des ouvrages de François Sarano,Vinciane Despret ou Baptiste Morizot.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Durand_(biologiste)</t>
+          <t>Stéphane_Durand_(biologiste)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stéphane Durand a été conseiller scientifique pour les films de Jacques Perrin[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stéphane Durand a été conseiller scientifique pour les films de Jacques Perrin. 
 </t>
         </is>
       </c>
